--- a/Related Source/新闻推荐文献和资源汇总.xls.xlsx
+++ b/Related Source/新闻推荐文献和资源汇总.xls.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Paper\Related Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE90C52E-9366-4550-90E9-010ABB7BFD03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1304FA60-93BF-48E2-A6F4-2DC7564B20C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{ADF88734-A4F8-4342-8582-E38B947D4BB3}"/>
   </bookViews>
@@ -21,18 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,6 +258,21 @@
   </si>
   <si>
     <t>微软开源推荐系统项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/yusanshi/NewsRecommendation</t>
+  </si>
+  <si>
+    <t>Pytorch实现的新闻推荐系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/THUDM/NLP4Rec-Papers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然语言处理和推荐系统相关地论文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -864,10 +873,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46158579-F677-44D7-B991-EC207A9329AF}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -944,6 +953,22 @@
         <v>55</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -954,8 +979,9 @@
     <hyperlink ref="B6" r:id="rId5" xr:uid="{B760D9DE-036F-4AA3-A1AB-DE9A487AD354}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{5F995940-BF1C-4F71-8D1F-5F462DF11E82}"/>
     <hyperlink ref="B8" r:id="rId7" xr:uid="{FDD2127C-B462-4BC1-899C-BB57DF473329}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{D011C2CA-DCC7-4184-A59C-AAA70072B790}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>